--- a/results/quick.xlsx
+++ b/results/quick.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s\PycharmProjects\sorts\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8125170F-7525-4359-AEE4-11E3F58A0545}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="straight" sheetId="1" r:id="rId1"/>
     <sheet name="reversed" sheetId="2" r:id="rId2"/>
     <sheet name="sorted" sheetId="3" r:id="rId3"/>
     <sheet name="partly_sorted" sheetId="4" r:id="rId4"/>
+    <sheet name="same_elements" sheetId="5" r:id="rId5"/>
+    <sheet name="partly_same" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
   <si>
     <t>byte</t>
   </si>
@@ -34,8 +42,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +80,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -118,7 +134,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -150,9 +166,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,6 +218,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -359,14 +411,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>5</v>
       </c>
@@ -386,7 +438,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -394,10 +446,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0001002</v>
+        <v>1.002E-4</v>
       </c>
       <c r="D2">
-        <v>0.002903</v>
+        <v>2.9030000000000002E-3</v>
       </c>
       <c r="E2">
         <v>0.2064156</v>
@@ -409,21 +461,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0001004</v>
+        <v>1.004E-4</v>
       </c>
       <c r="C3">
-        <v>0.0002002</v>
+        <v>2.0019999999999999E-4</v>
       </c>
       <c r="D3">
-        <v>0.0150224</v>
+        <v>1.50224E-2</v>
       </c>
       <c r="E3">
-        <v>0.5802054</v>
+        <v>0.58020539999999998</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -432,7 +484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -440,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0003004</v>
+        <v>3.0039999999999998E-4</v>
       </c>
       <c r="D4">
-        <v>0.0168172</v>
+        <v>1.6817200000000001E-2</v>
       </c>
       <c r="E4">
-        <v>1.8366238</v>
+        <v>1.8366237999999999</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -455,21 +507,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.98e-05</v>
+        <v>9.98E-5</v>
       </c>
       <c r="C5">
-        <v>0.0002006</v>
+        <v>2.006E-4</v>
       </c>
       <c r="D5">
-        <v>0.0178122</v>
+        <v>1.78122E-2</v>
       </c>
       <c r="E5">
-        <v>1.8768614</v>
+        <v>1.8768613999999999</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -484,14 +536,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>5</v>
       </c>
@@ -511,7 +563,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -519,13 +571,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0002004</v>
+        <v>2.0039999999999999E-4</v>
       </c>
       <c r="D2">
-        <v>0.0035036</v>
+        <v>3.5035999999999999E-3</v>
       </c>
       <c r="E2">
-        <v>0.1928016</v>
+        <v>0.19280159999999999</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -534,18 +586,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0001002</v>
+        <v>1.002E-4</v>
       </c>
       <c r="C3">
-        <v>0.0001998</v>
+        <v>1.998E-4</v>
       </c>
       <c r="D3">
-        <v>0.0179188</v>
+        <v>1.7918799999999999E-2</v>
       </c>
       <c r="E3">
         <v>1.8707592</v>
@@ -557,21 +609,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0001002</v>
+        <v>1.002E-4</v>
       </c>
       <c r="C4">
-        <v>0.0002002</v>
+        <v>2.0019999999999999E-4</v>
       </c>
       <c r="D4">
-        <v>0.0169178</v>
+        <v>1.69178E-2</v>
       </c>
       <c r="E4">
-        <v>1.8712918</v>
+        <v>1.8712918000000001</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -580,7 +632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -588,13 +640,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D5">
-        <v>0.0169174</v>
+        <v>1.6917399999999999E-2</v>
       </c>
       <c r="E5">
-        <v>1.6147936</v>
+        <v>1.6147936000000001</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -609,14 +661,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>5</v>
       </c>
@@ -636,7 +688,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -644,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.96e-05</v>
+        <v>9.9599999999999995E-5</v>
       </c>
       <c r="D2">
-        <v>0.0024154</v>
+        <v>2.4153999999999998E-3</v>
       </c>
       <c r="E2">
-        <v>0.1898998</v>
+        <v>0.18989980000000001</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -659,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -667,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0001996</v>
+        <v>1.996E-4</v>
       </c>
       <c r="D3">
-        <v>0.0180182</v>
+        <v>1.8018200000000002E-2</v>
       </c>
       <c r="E3">
         <v>1.9719598</v>
@@ -682,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -690,10 +742,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.000294</v>
+        <v>2.9399999999999999E-4</v>
       </c>
       <c r="D4">
-        <v>0.0174108</v>
+        <v>1.7410800000000001E-2</v>
       </c>
       <c r="E4">
         <v>1.8161</v>
@@ -705,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -713,13 +765,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0003006</v>
+        <v>3.0059999999999999E-4</v>
       </c>
       <c r="D5">
-        <v>0.0190196</v>
+        <v>1.9019600000000001E-2</v>
       </c>
       <c r="E5">
-        <v>1.5804484</v>
+        <v>1.5804484000000001</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -734,14 +786,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>5</v>
       </c>
@@ -761,7 +813,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -769,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0001004</v>
+        <v>1.004E-4</v>
       </c>
       <c r="D2">
-        <v>0.0031032</v>
+        <v>3.1032E-3</v>
       </c>
       <c r="E2">
-        <v>0.2083176</v>
+        <v>0.20831759999999999</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -784,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -792,13 +844,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0003002</v>
+        <v>3.0019999999999998E-4</v>
       </c>
       <c r="D3">
-        <v>0.014022</v>
+        <v>1.4022E-2</v>
       </c>
       <c r="E3">
-        <v>0.616744</v>
+        <v>0.61674399999999996</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -807,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -815,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0002002</v>
+        <v>2.0019999999999999E-4</v>
       </c>
       <c r="D4">
-        <v>0.018117</v>
+        <v>1.8117000000000001E-2</v>
       </c>
       <c r="E4">
-        <v>2.1947932</v>
+        <v>2.1947931999999999</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -830,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -838,13 +890,265 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0002002</v>
+        <v>2.0019999999999999E-4</v>
       </c>
       <c r="D5">
-        <v>0.0168108</v>
+        <v>1.6810800000000001E-2</v>
       </c>
       <c r="E5">
-        <v>2.1093064</v>
+        <v>2.1093063999999999</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA594B36-FA9A-4856-B44D-A274CC2206C3}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>50</v>
+      </c>
+      <c r="D1">
+        <v>500</v>
+      </c>
+      <c r="E1">
+        <v>5000</v>
+      </c>
+      <c r="F1">
+        <v>50000</v>
+      </c>
+      <c r="G1">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>3.8004999999999997E-2</v>
+      </c>
+      <c r="E2">
+        <v>3.675999</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1E-3</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>3.9003000000000003E-2</v>
+      </c>
+      <c r="E3">
+        <v>2.7418640000000001</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2.5002E-2</v>
+      </c>
+      <c r="E4">
+        <v>1.994583</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2.8001999999999999E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.1282230000000002</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D915FBA4-65B6-46AC-9C2C-C518182307A6}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>50</v>
+      </c>
+      <c r="D1">
+        <v>500</v>
+      </c>
+      <c r="E1">
+        <v>5000</v>
+      </c>
+      <c r="F1">
+        <v>50000</v>
+      </c>
+      <c r="G1">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>4.5040000000000002E-3</v>
+      </c>
+      <c r="E2">
+        <v>0.46248</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1.6549000000000001E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.80580799999999997</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1.8020000000000001E-2</v>
+      </c>
+      <c r="E4">
+        <v>2.1807780000000001</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>5.0100000000000003E-4</v>
+      </c>
+      <c r="D5">
+        <v>1.6521000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.2584960000000001</v>
       </c>
       <c r="F5">
         <v>0</v>
